--- a/Progamação de Aplicativos/Pandas/Tuturial_Pandas/Lista.xlsx
+++ b/Progamação de Aplicativos/Pandas/Tuturial_Pandas/Lista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrian_holz\Documents\Atividades\Progamação de Aplicativos\Pandas\Tuturial_Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F0B8D9-0F8E-4D3A-B70E-E96084B7DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2783BA2A-E3C6-4CF9-B4DA-5470BE733CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2389BBBD-97E8-4C95-B61A-9C51134A168A}"/>
+    <workbookView xWindow="2745" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{2389BBBD-97E8-4C95-B61A-9C51134A168A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
